--- a/utilities/Excel_Sheets/Products/CYB_CAP.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_CAP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -84,10 +84,7 @@
     <t>PCI_Medical_Group_1</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>select_Medefense_Plus_with_Peer_Review_Proceeding_Sublimit_and_CyberRisk_Combined_Separate_Limits_with_Claim_Expenses_Outside_Limits_and_Cyber_Crime</t>
+    <t>select_CyberRisk_Only</t>
   </si>
 </sst>
 </file>
@@ -476,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -503,7 +500,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -547,7 +544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -556,7 +553,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43137</v>
+        <v>43165</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -586,18 +583,15 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/utilities/Excel_Sheets/Products/CYB_CAP.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_CAP.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>Medical Group</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Sanity</t>
   </si>
   <si>
     <t>Test_Summary</t>
@@ -473,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -484,116 +475,96 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="147.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="147.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43165</v>
-      </c>
-      <c r="D2" s="4">
+        <v>43381</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10000001</v>
+      </c>
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5">
-        <v>10000001</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="4">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
